--- a/util/datas.xlsx
+++ b/util/datas.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2720" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="2480" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,58 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <rPh sb="0" eb="1">
-      <t>ming cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <rPh sb="0" eb="1">
-      <t>qing qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖id</t>
-    <rPh sb="0" eb="1">
-      <t>yi lai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖数据</t>
-    <rPh sb="0" eb="1">
-      <t>yi lai shu ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖数据所属字段</t>
-    <rPh sb="0" eb="1">
-      <t>yi lai shu ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>suo shu zi duan</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,6 +63,84 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="1">
+      <t>mo kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否携带header</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case依赖</t>
+    <rPh sb="4" eb="5">
+      <t>yi lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖的返回数据</t>
+    <rPh sb="0" eb="1">
+      <t>yi lai shu ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据依赖字段</t>
+    <rPh sb="2" eb="3">
+      <t>yi lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <rPh sb="0" eb="1">
+      <t>yu qi jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji jie guo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,62 +479,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
